--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavitha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavitha\Documents\GitHub\Web-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971958C3-D818-4CA8-9969-3640EAB9301C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB383D-091B-4EFC-9E20-9DB677FED507}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="220">
   <si>
     <t>Requirement Master</t>
   </si>
@@ -676,6 +676,21 @@
   </si>
   <si>
     <t>Input Field</t>
+  </si>
+  <si>
+    <t>Contributors</t>
+  </si>
+  <si>
+    <t>Kavitha</t>
+  </si>
+  <si>
+    <t>Mannar Mannan</t>
+  </si>
+  <si>
+    <t>Murugesan</t>
+  </si>
+  <si>
+    <t>Girikumaran</t>
   </si>
 </sst>
 </file>
@@ -1095,38 +1110,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>213</v>
       </c>
@@ -1146,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB580D4-BABB-47BB-91A6-298118380A29}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavitha\Documents\GitHub\Web-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB383D-091B-4EFC-9E20-9DB677FED507}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5464C4-77A4-4D56-AF31-449ECCBB4F7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Student Registration Form" sheetId="2" r:id="rId2"/>
-    <sheet name="SR_SRF_001" sheetId="3" r:id="rId3"/>
-    <sheet name="Login Form" sheetId="4" r:id="rId4"/>
-    <sheet name="Profile Form" sheetId="6" r:id="rId5"/>
-    <sheet name="Quiz Form" sheetId="5" r:id="rId6"/>
+    <sheet name="Login Form" sheetId="4" r:id="rId2"/>
+    <sheet name="Student Registration Form" sheetId="2" r:id="rId3"/>
+    <sheet name="SR_SRF_001" sheetId="3" r:id="rId4"/>
+    <sheet name="SR_SRF_004" sheetId="7" r:id="rId5"/>
+    <sheet name="SR_SRF_005" sheetId="8" r:id="rId6"/>
+    <sheet name="SR_SRF_006" sheetId="9" r:id="rId7"/>
+    <sheet name="SR_SRF_007" sheetId="10" r:id="rId8"/>
+    <sheet name="SR_SRF_008" sheetId="11" r:id="rId9"/>
+    <sheet name="SR_SRF_009" sheetId="12" r:id="rId10"/>
+    <sheet name="SR_SRF_010" sheetId="13" r:id="rId11"/>
+    <sheet name="Test_Student_Registration_Form" sheetId="14" r:id="rId12"/>
+    <sheet name="Profile Form" sheetId="6" r:id="rId13"/>
+    <sheet name="Quiz Form" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="397">
   <si>
     <t>Requirement Master</t>
   </si>
@@ -691,13 +699,544 @@
   </si>
   <si>
     <t>Girikumaran</t>
+  </si>
+  <si>
+    <t>Design Requirement ID</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_001</t>
+  </si>
+  <si>
+    <t>DD/MM/YYY</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_002</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_003</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_006</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_008</t>
+  </si>
+  <si>
+    <t>Max 08 characters</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_013</t>
+  </si>
+  <si>
+    <t>Default - Blue</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_015</t>
+  </si>
+  <si>
+    <t>Primary key (must)</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_016</t>
+  </si>
+  <si>
+    <t>Type your caption here to register !</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_017</t>
+  </si>
+  <si>
+    <t>Characters (0-10) space</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_004_DS_019</t>
+  </si>
+  <si>
+    <t>Characters(A-Z)</t>
+  </si>
+  <si>
+    <t>Design Document - Student Registration Form- Date of Birth</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_001</t>
+  </si>
+  <si>
+    <t>The First letter shall be capital -Sex</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_002</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_003</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_006</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_008</t>
+  </si>
+  <si>
+    <t>Max 06 characters</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_013</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_015</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_016</t>
+  </si>
+  <si>
+    <t>Type your Sex here to register !</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_017</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_005_DS_019</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_001</t>
+  </si>
+  <si>
+    <t>The First letter shall be capital -Marital</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_002</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_003</t>
+  </si>
+  <si>
+    <t>SRF_Marital status</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_006</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_008</t>
+  </si>
+  <si>
+    <t>Max 10 characters</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_013</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_015</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_016</t>
+  </si>
+  <si>
+    <t>Type your Marital status here to register !</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_017</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_006_DS_019</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_001</t>
+  </si>
+  <si>
+    <t>The First letter shall be capital -Nationality</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_002</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_003</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_006</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_008</t>
+  </si>
+  <si>
+    <t>Max 6 characters</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_013</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_015</t>
+  </si>
+  <si>
+    <t>Defalut</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_016</t>
+  </si>
+  <si>
+    <t>Type your Nationality here to register !</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_017</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_007_DS_019</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_001</t>
+  </si>
+  <si>
+    <t>The First letter shall be capital -Religion</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_002</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_003</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_006</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_008</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_013</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_015</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_016</t>
+  </si>
+  <si>
+    <t>Type your Religion here to register !</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_017</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_008_DS_019</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_001</t>
+  </si>
+  <si>
+    <t>The First letter shall be capital -Education</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_002</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_003</t>
+  </si>
+  <si>
+    <t>SRF_Education</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_006</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max n characters </t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_013</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_015</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_016</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_017</t>
+  </si>
+  <si>
+    <t>Characters (A-Z), (a-z) and (0-10) Space</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_009_DS_019</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_001</t>
+  </si>
+  <si>
+    <t>The First letter shall be capital -Address</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_002</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_003</t>
+  </si>
+  <si>
+    <t>SRF_Address</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_004</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_005</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_006</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_007</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_008</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_009</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_010</t>
+  </si>
+  <si>
+    <t>SR_SRF_0110_DS_011</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_012</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_013</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_014</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_015</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_016</t>
+  </si>
+  <si>
+    <t>Type your "Address " here to register !</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_017</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_018</t>
+  </si>
+  <si>
+    <t>SR_SRF_010_DS_019</t>
+  </si>
+  <si>
+    <t>Design ID</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actaul</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>TS_SRF_001</t>
+  </si>
+  <si>
+    <t>Ensure Name displays correctly</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +1269,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -804,7 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -829,6 +1374,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1112,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1726,1490 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A556A5-46A2-4E3B-93E6-CCEA6867BB63}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{257CEBA8-5BDE-49E3-8DDA-DEEC307D7942}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{64D96865-FF08-40A6-95E5-53A88F30F189}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE951952-D824-48CE-8D45-EC9D2DEC93F2}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{9782EA33-7692-4082-BB07-20439F0B04AD}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{89467199-C1A7-45F7-ABA6-4D70286FAA15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952013A2-42AF-458C-9948-4D672B870948}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{1A7FA3ED-E8C6-4B71-95AC-037992734C56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87685721-E51E-4E81-B216-FE92C18EF96F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{27E0828A-0029-4174-A708-500FB4A336BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DDB72C-35E6-480C-85D4-865DC1D386B7}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{9D5367D6-3229-494E-AC94-28AA63E27294}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F56CE7-9C42-4ADE-A32A-313CAD285CE7}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{36ED40C4-E2B2-49B9-A861-65022D569C1B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB580D4-BABB-47BB-91A6-298118380A29}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -1490,7 +3522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D682DBB-42BE-4AE8-A13D-AC6FEE308162}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -1833,21 +3865,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F56CE7-9C42-4ADE-A32A-313CAD285CE7}">
-  <dimension ref="A1:J18"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A85634-CA1D-4BDF-91D9-82BD7E5EE0C4}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1855,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -1866,227 +3896,557 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>114</v>
+        <v>220</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>117</v>
+      <c r="B5" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{36ED40C4-E2B2-49B9-A861-65022D569C1B}"/>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{4EF7C4EC-919C-493E-8170-74A811F4A878}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{3EDBED85-C7E2-4E3C-BD6A-C754DBEDE415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87685721-E51E-4E81-B216-FE92C18EF96F}">
-  <dimension ref="A1:J18"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE07BB81-E0E8-4DFA-83F7-575A6946EB63}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{561A5BEF-B5B1-4136-86C6-9883E1A9BCE0}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{B77BC4F0-C75F-48CE-8382-F0E9C5DF4CF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BA68A-71D8-413D-9030-9F44612C1420}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2094,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -2105,576 +4465,824 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>132</v>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>253</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+        <v>284</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{27E0828A-0029-4174-A708-500FB4A336BB}"/>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{11EED503-5FDC-4290-9426-04C628DB3B16}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{9AB13275-78BC-44B1-82AF-D0365665BB74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DDB72C-35E6-480C-85D4-865DC1D386B7}">
-  <dimension ref="A1:J21"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1500ADD-5B5D-4C15-9B4A-E7265BEA2C98}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{9D5367D6-3229-494E-AC94-28AA63E27294}"/>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{1360E72D-03E2-44E5-BD54-123AE1EAC5A7}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{A921B05D-DBD9-40B1-BBB9-C88D8CB41EBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C1E1F5-6B42-4BBE-BE33-037405E0725E}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{EE39122F-1A7E-4BE9-A214-D525167597F8}"/>
+    <hyperlink ref="C2" location="'Student Registration Form'!A1" display="SR_SRF_001" xr:uid="{F11D9D8C-3534-4C04-BE22-8F6FAAEF1ECC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavitha\Documents\GitHub\Web-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5464C4-77A4-4D56-AF31-449ECCBB4F7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F0195D-F104-4811-A655-7AAD0A5AE010}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="398">
   <si>
     <t>Requirement Master</t>
   </si>
@@ -1230,6 +1230,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Test_Student_Registration_Form</t>
   </si>
 </sst>
 </file>
@@ -1368,16 +1371,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1659,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,12 +1718,18 @@
         <v>213</v>
       </c>
     </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="'Student Registration Form'!A1" display="Student Registration Form" xr:uid="{5D9501A2-2016-4E18-A20C-F6F07BA2A40A}"/>
     <hyperlink ref="B5" location="'Login Form'!A1" tooltip="Login Form" display="Login Form" xr:uid="{AA5A0856-288C-4DDC-9C66-4E773D0D4794}"/>
     <hyperlink ref="B7" location="'Profile Form'!A1" tooltip="Profile Form" display="Profile Form" xr:uid="{84C990FC-C434-42EE-B82B-117765809ABD}"/>
     <hyperlink ref="B9" location="'Quiz Form'!A1" tooltip="Quiz Form" display="Quiz Form" xr:uid="{8F2916D0-FF5D-4AD3-8C29-348C7C123B1B}"/>
+    <hyperlink ref="B11" location="Test_Student_Registration_Form!A1" tooltip="Test_Student_Registration_Form" display="Test_Student_Registration_Form" xr:uid="{33F2BB7C-FBBA-4560-BCF6-9E66525D664F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1745,14 +1754,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1762,21 +1771,21 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -2027,14 +2036,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2044,21 +2053,21 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -2294,9 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952013A2-42AF-458C-9948-4D672B870948}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2384,14 +2391,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2655,14 +2662,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2991,14 +2998,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3230,14 +3237,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3539,14 +3546,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3884,14 +3891,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3902,21 +3909,21 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -3930,7 +3937,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4169,14 +4176,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4186,21 +4193,21 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -4453,14 +4460,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -4471,21 +4478,21 @@
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -4738,14 +4745,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4755,21 +4762,21 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -5022,14 +5029,14 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5039,21 +5046,21 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">

--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavitha\Documents\GitHub\Web-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F0195D-F104-4811-A655-7AAD0A5AE010}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C872C64D-A37E-4E95-9D11-AA5B6B643F3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="399">
   <si>
     <t>Requirement Master</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>Test_Student_Registration_Form</t>
+  </si>
+  <si>
+    <t>Design Document - Student Registration Form- D.O.B</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3221,7 +3224,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,7 +3327,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3523,6 +3526,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Master!A1" display="Master" xr:uid="{4D6E3066-9ECF-4BFA-BE3A-3BE7F4EDF5C2}"/>
     <hyperlink ref="B4" location="SR_SRF_001!A1" display="SR_SRF_001" xr:uid="{19B2B29B-9E3C-4774-B982-EAEBC0C7604C}"/>
+    <hyperlink ref="B7" location="SR_SRF_004!A1" display="SR_SRF_004" xr:uid="{A096DDCE-287C-4D48-98AB-9EE22470B122}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3533,7 +3537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D682DBB-42BE-4AE8-A13D-AC6FEE308162}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3876,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A85634-CA1D-4BDF-91D9-82BD7E5EE0C4}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3892,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -4445,9 +4451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BA68A-71D8-413D-9030-9F44612C1420}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
